--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734EF749-ED63-4428-8EE3-EC257AB959CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D4E9D3-7BDB-49D5-86CB-4F0E32BC342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="205">
   <si>
     <t>Complemento</t>
   </si>
@@ -392,12 +392,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -636,6 +630,30 @@
   </si>
   <si>
     <t>118</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -740,43 +758,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -821,9 +803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,7 +843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -967,7 +949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1109,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1117,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1150,7 +1132,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>116</v>
@@ -1161,16 +1143,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1192,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1203,41 +1185,41 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="4">
         <v>831</v>
@@ -1248,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1259,10 +1241,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1273,10 +1255,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1287,167 +1269,167 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>133</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1455,58 +1437,58 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,7 +1496,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1525,13 +1507,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1542,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
@@ -1553,16 +1535,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1584,7 +1566,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1595,16 +1577,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,13 +1594,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,7 +1608,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>41</v>
@@ -1640,7 +1622,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
@@ -1654,7 +1636,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>45</v>
@@ -1668,7 +1650,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1682,7 +1664,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1696,7 +1678,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1707,27 +1689,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4">
         <v>471</v>
@@ -1738,7 +1720,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1752,7 +1734,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1763,27 +1745,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1794,7 +1776,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>53</v>
@@ -1808,7 +1790,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1822,7 +1804,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1833,13 +1815,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1847,41 +1829,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54" s="4">
         <v>103</v>
@@ -1889,181 +1871,181 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D60" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>146</v>
+      <c r="D61" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="4">
-        <v>211</v>
+        <v>190</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -2071,524 +2053,546 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>133</v>
+        <v>79</v>
+      </c>
+      <c r="D68" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="4">
-        <v>820</v>
+        <v>148</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D72" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="D73" s="4">
-        <v>433</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="4">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D75" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="D76" s="4">
-        <v>87</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>158</v>
+        <v>88</v>
+      </c>
+      <c r="D77" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D78" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D79" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D81" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="D82" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>133</v>
+        <v>94</v>
+      </c>
+      <c r="D84" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D86" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="4">
-        <v>107</v>
+        <v>162</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D88" s="4">
-        <v>747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="D89" s="4">
-        <v>449</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90" s="4">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D91" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="D92" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D93" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D94" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D95" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D96" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="D97" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="D98" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="D99" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="B104" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D104" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D101" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D101">
-      <sortCondition ref="A1:A85"/>
+  <autoFilter ref="A1:D104" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
+      <sortCondition ref="A1:A88"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A99:D101 A65:D97 A43:D63 A23:D41 A4:D21">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D50 A52:D104">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:D98">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A98))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D64">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A42))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:D22">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D3:D101" numberStoredAsText="1"/>
+    <ignoredError sqref="D68:D104 D3:D26 D52:D65 D28:D50" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D4E9D3-7BDB-49D5-86CB-4F0E32BC342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7224C3-1E3A-4EDE-8B0F-22C07EE062F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
   <si>
     <t>Complemento</t>
   </si>
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>S010002</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,13 +1163,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1171,91 +1177,91 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>123</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="4">
-        <v>831</v>
+        <v>125</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="D9" s="4">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>180</v>
@@ -1264,40 +1270,40 @@
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>180</v>
@@ -1306,82 +1312,82 @@
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>131</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>180</v>
@@ -1390,12 +1396,12 @@
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>180</v>
@@ -1404,32 +1410,32 @@
         <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1437,97 +1443,97 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="D28" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1535,41 +1541,41 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1577,55 +1583,55 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>140</v>
+        <v>37</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1633,21 +1639,21 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>180</v>
@@ -1656,12 +1662,12 @@
         <v>45</v>
       </c>
       <c r="D39" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>180</v>
@@ -1670,12 +1676,12 @@
         <v>45</v>
       </c>
       <c r="D40" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>180</v>
@@ -1684,54 +1690,54 @@
         <v>45</v>
       </c>
       <c r="D41" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>45</v>
+      </c>
+      <c r="D42" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="4">
-        <v>471</v>
+        <v>192</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D44" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>180</v>
@@ -1740,46 +1746,46 @@
         <v>50</v>
       </c>
       <c r="D45" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>131</v>
+        <v>50</v>
+      </c>
+      <c r="D46" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1787,27 +1793,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1815,27 +1821,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1843,41 +1849,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="4">
         <v>103</v>
@@ -1885,7 +1891,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>180</v>
@@ -1894,54 +1900,54 @@
         <v>65</v>
       </c>
       <c r="D56" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>180</v>
@@ -1950,26 +1956,26 @@
         <v>72</v>
       </c>
       <c r="D60" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D61" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>180</v>
@@ -1977,13 +1983,13 @@
       <c r="C62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>144</v>
+      <c r="D62" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>180</v>
@@ -1992,60 +1998,60 @@
         <v>75</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>131</v>
+        <v>77</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -2053,77 +2059,77 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="D69" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>131</v>
+        <v>81</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="4">
-        <v>820</v>
+        <v>151</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>182</v>
@@ -2132,82 +2138,82 @@
         <v>83</v>
       </c>
       <c r="D73" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="D74" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="D76" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D77" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>180</v>
@@ -2216,12 +2222,12 @@
         <v>90</v>
       </c>
       <c r="D79" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>180</v>
@@ -2229,27 +2235,27 @@
       <c r="C80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>156</v>
+      <c r="D80" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>180</v>
@@ -2258,26 +2264,26 @@
         <v>92</v>
       </c>
       <c r="D82" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>180</v>
@@ -2286,152 +2292,152 @@
         <v>94</v>
       </c>
       <c r="D84" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
+      </c>
+      <c r="D85" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D89" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D90" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="D91" s="4">
-        <v>747</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D92" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="D93" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D94" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>180</v>
@@ -2440,26 +2446,26 @@
         <v>105</v>
       </c>
       <c r="D95" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D96" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>185</v>
@@ -2468,12 +2474,12 @@
         <v>108</v>
       </c>
       <c r="D97" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>185</v>
@@ -2482,46 +2488,46 @@
         <v>108</v>
       </c>
       <c r="D98" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D99" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="D100" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>131</v>
@@ -2529,70 +2535,84 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D104" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
-      <sortCondition ref="A1:A88"/>
+  <autoFilter ref="A1:D105" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
+      <sortCondition ref="A1:A89"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D104">
+  <conditionalFormatting sqref="A2:D3 A5:D105">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D68:D104 D3:D26 D52:D65 D28:D50" numberStoredAsText="1"/>
+    <ignoredError sqref="D69:D105 D5:D27 D53:D66 D29:D51 D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7224C3-1E3A-4EDE-8B0F-22C07EE062F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E9ADD-D652-4E71-AF78-5FD67150CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="209">
   <si>
     <t>Complemento</t>
   </si>
@@ -660,6 +660,12 @@
   </si>
   <si>
     <t>S010002</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,41 +2513,41 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="D100" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="D101" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>131</v>
@@ -2549,70 +2555,84 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D105" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
+  <autoFilter ref="A1:D106" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
       <sortCondition ref="A1:A89"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A5:D105">
+  <conditionalFormatting sqref="A2:D99 A101:D106">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
+  <conditionalFormatting sqref="A100:D100">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
+      <formula>LEN(TRIM(A100))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D69:D105 D5:D27 D53:D66 D29:D51 D3" numberStoredAsText="1"/>
+    <ignoredError sqref="D101:D106 D5:D27 D53:D66 D29:D51 D3 D69:D99" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E9ADD-D652-4E71-AF78-5FD67150CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143E5F4-07F0-4A36-B5F7-8151FFE67116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="208">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -497,12 +494,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -666,6 +657,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1113,9 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1141,13 +1136,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1155,27 +1150,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1186,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1200,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1211,41 +1206,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1256,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1267,10 +1262,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1281,10 +1276,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1298,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1312,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1326,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1337,13 +1332,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1354,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1368,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1379,16 +1374,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,7 +1391,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1410,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1421,10 +1416,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1438,7 +1433,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1452,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1466,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1477,10 +1472,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1491,10 +1486,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1505,13 +1500,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1522,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1533,13 +1528,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1550,7 +1545,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1561,16 +1556,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1573,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1592,7 +1587,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1603,16 +1598,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +1615,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1648,7 +1643,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1662,7 +1657,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1676,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1690,7 +1685,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1704,7 +1699,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1715,97 +1710,97 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="D44" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>131</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1813,27 +1808,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1841,27 +1836,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1869,41 +1864,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1911,167 +1906,167 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D62" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>144</v>
+      <c r="D63" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>131</v>
+        <v>77</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2079,111 +2074,111 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="D69" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="D70" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>131</v>
+        <v>81</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="4">
-        <v>820</v>
+        <v>150</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D74" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="D75" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D76" s="4">
         <v>553</v>
@@ -2191,13 +2186,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D77" s="4">
         <v>433</v>
@@ -2205,13 +2200,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="4">
         <v>72</v>
@@ -2219,13 +2214,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2233,13 +2228,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2247,27 +2242,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2275,13 +2270,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2289,13 +2284,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" s="4">
         <v>994</v>
@@ -2303,13 +2298,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D85" s="4">
         <v>695</v>
@@ -2317,27 +2312,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2345,27 +2340,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2373,13 +2368,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D90" s="4">
         <v>53</v>
@@ -2387,13 +2382,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D91" s="4">
         <v>107</v>
@@ -2401,13 +2396,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D92" s="4">
         <v>747</v>
@@ -2415,13 +2410,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D93" s="4">
         <v>449</v>
@@ -2429,13 +2424,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2443,13 +2438,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="4">
         <v>163</v>
@@ -2457,13 +2452,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="4">
         <v>799</v>
@@ -2471,13 +2466,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="4">
         <v>1127</v>
@@ -2485,13 +2480,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="4">
         <v>569</v>
@@ -2499,13 +2494,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" s="4">
         <v>762</v>
@@ -2513,13 +2508,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2527,13 +2522,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D101" s="4">
         <v>211</v>
@@ -2541,55 +2536,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2597,13 +2592,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2612,27 +2607,24 @@
   </sheetData>
   <autoFilter ref="A1:D106" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
-      <sortCondition ref="A1:A89"/>
+      <sortCondition ref="A1:A106"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D99 A101:D106">
+  <conditionalFormatting sqref="A2:D74 A76:D106">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:D100">
+  <conditionalFormatting sqref="A75:D75">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A100))&gt;0</formula>
+      <formula>LEN(TRIM(A75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D101:D106 D5:D27 D53:D66 D29:D51 D3 D69:D99" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143E5F4-07F0-4A36-B5F7-8151FFE67116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F093395B-8DA2-4364-BE7D-7C689FEFB13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1136,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1150,27 +1152,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1181,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1195,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1206,41 +1208,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1251,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1262,10 +1264,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1276,10 +1278,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1293,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1307,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1321,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1332,13 +1334,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1349,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1363,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1374,16 +1376,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1405,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1416,10 +1418,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1433,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1447,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1461,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1472,10 +1474,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1486,10 +1488,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1500,13 +1502,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1517,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1528,13 +1530,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1545,7 +1547,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1556,16 +1558,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,7 +1575,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1587,7 +1589,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1598,16 +1600,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,38 +1617,38 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1654,13 +1656,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>899</v>
@@ -1668,13 +1670,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="4">
         <v>896</v>
@@ -1682,13 +1684,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>900</v>
@@ -1696,13 +1698,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>898</v>
@@ -1710,27 +1712,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1738,13 +1740,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D45" s="4">
         <v>471</v>
@@ -1752,13 +1754,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1766,13 +1768,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1780,27 +1782,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1808,13 +1810,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1822,13 +1824,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1836,13 +1838,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1850,13 +1852,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1864,13 +1866,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1878,13 +1880,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1892,13 +1894,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1906,13 +1908,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1920,13 +1922,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4">
         <v>910</v>
@@ -1934,13 +1936,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1948,13 +1950,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1962,13 +1964,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1976,13 +1978,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1990,13 +1992,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -2004,41 +2006,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2046,27 +2048,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2074,13 +2076,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2088,13 +2090,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>211</v>
@@ -2102,27 +2104,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2130,27 +2132,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D74" s="4">
         <v>820</v>
@@ -2158,13 +2160,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4">
         <v>819</v>
@@ -2172,13 +2174,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D76" s="4">
         <v>553</v>
@@ -2186,13 +2188,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D77" s="4">
         <v>433</v>
@@ -2200,13 +2202,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="4">
         <v>72</v>
@@ -2214,13 +2216,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2228,13 +2230,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2242,27 +2244,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2270,13 +2272,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2284,13 +2286,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4">
         <v>994</v>
@@ -2298,13 +2300,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D85" s="4">
         <v>695</v>
@@ -2312,27 +2314,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2340,27 +2342,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2368,13 +2370,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D90" s="4">
         <v>53</v>
@@ -2382,13 +2384,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D91" s="4">
         <v>107</v>
@@ -2396,13 +2398,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D92" s="4">
         <v>747</v>
@@ -2410,13 +2412,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D93" s="4">
         <v>449</v>
@@ -2424,13 +2426,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2438,13 +2440,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="4">
         <v>163</v>
@@ -2452,13 +2454,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" s="4">
         <v>799</v>
@@ -2466,13 +2468,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="4">
         <v>1127</v>
@@ -2480,13 +2482,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D98" s="4">
         <v>569</v>
@@ -2494,13 +2496,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99" s="4">
         <v>762</v>
@@ -2508,13 +2510,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2522,13 +2524,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D101" s="4">
         <v>211</v>
@@ -2536,55 +2538,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2592,13 +2594,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2611,18 +2613,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D74 A76:D106">
+  <conditionalFormatting sqref="A2:D36 A38:D106">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:D75">
+  <conditionalFormatting sqref="A37:D37">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A75))&gt;0</formula>
+      <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F093395B-8DA2-4364-BE7D-7C689FEFB13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AFC50-9EC2-4985-908E-58CC26673231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>118</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -663,6 +657,12 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1110,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1138,13 +1147,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1152,27 +1161,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1183,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1197,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1208,41 +1217,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1253,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1264,10 +1273,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1278,10 +1287,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1295,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1309,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1323,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1334,13 +1343,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1351,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1365,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1376,16 +1385,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1407,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1418,10 +1427,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1435,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1449,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1463,7 +1472,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1474,10 +1483,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1488,10 +1497,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1502,16 +1511,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1530,13 +1539,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1547,7 +1556,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1558,16 +1567,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1589,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1600,16 +1609,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,21 +1626,21 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>40</v>
@@ -1645,7 +1654,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1659,7 +1668,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>44</v>
@@ -1673,7 +1682,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1687,7 +1696,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1701,7 +1710,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1712,27 +1721,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1740,13 +1749,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D45" s="4">
         <v>471</v>
@@ -1757,7 +1766,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>49</v>
@@ -1771,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1782,27 +1791,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1813,7 +1822,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>52</v>
@@ -1827,7 +1836,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>54</v>
@@ -1841,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>56</v>
@@ -1852,13 +1861,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1869,7 +1878,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1883,7 +1892,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>60</v>
@@ -1897,7 +1906,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>62</v>
@@ -1911,7 +1920,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>64</v>
@@ -1925,7 +1934,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
@@ -1939,7 +1948,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>67</v>
@@ -1953,7 +1962,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -1967,7 +1976,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>71</v>
@@ -1981,7 +1990,7 @@
         <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1995,7 +2004,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>74</v>
@@ -2006,30 +2015,30 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,7 +2046,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>76</v>
@@ -2048,27 +2057,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2076,13 +2085,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2093,7 +2102,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>78</v>
@@ -2104,55 +2113,55 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D74" s="4">
         <v>820</v>
@@ -2160,13 +2169,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="4">
         <v>819</v>
@@ -2174,13 +2183,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D76" s="4">
         <v>553</v>
@@ -2188,13 +2197,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77" s="4">
         <v>433</v>
@@ -2202,13 +2211,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="4">
         <v>72</v>
@@ -2216,13 +2225,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2230,13 +2239,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2244,27 +2253,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2272,13 +2281,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2286,13 +2295,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="4">
         <v>994</v>
@@ -2300,13 +2309,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D85" s="4">
         <v>695</v>
@@ -2314,27 +2323,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2342,27 +2351,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2370,13 +2379,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D90" s="4">
         <v>53</v>
@@ -2384,13 +2393,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D91" s="4">
         <v>107</v>
@@ -2398,13 +2407,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D92" s="4">
         <v>747</v>
@@ -2412,13 +2421,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D93" s="4">
         <v>449</v>
@@ -2426,13 +2435,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2440,13 +2449,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D95" s="4">
         <v>163</v>
@@ -2454,13 +2463,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" s="4">
         <v>799</v>
@@ -2468,13 +2477,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D97" s="4">
         <v>1127</v>
@@ -2482,13 +2491,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" s="4">
         <v>569</v>
@@ -2496,13 +2505,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99" s="4">
         <v>762</v>
@@ -2510,13 +2519,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2524,13 +2533,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>211</v>
@@ -2538,55 +2547,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2594,13 +2603,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2613,18 +2622,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D36 A38:D106">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D27 A73:D106 A29:D71">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:D37">
+  <conditionalFormatting sqref="A72:D72">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:D28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
+      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AFC50-9EC2-4985-908E-58CC26673231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E828609-F6D4-4B0F-90A9-FF6DE8140D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="205">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -434,18 +416,9 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -663,6 +636,24 @@
   </si>
   <si>
     <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -767,16 +758,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1119,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1147,13 +1129,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1161,27 +1143,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1192,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1206,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1217,41 +1199,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1262,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1273,10 +1255,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1287,10 +1269,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1304,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1318,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1332,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1343,13 +1325,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1360,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1374,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1385,16 +1367,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1416,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1427,10 +1409,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1444,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1458,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1472,7 +1454,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1483,10 +1465,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1497,10 +1479,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1511,13 +1493,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D28" s="4">
         <v>1160</v>
@@ -1528,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1539,69 +1521,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1609,41 +1591,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4">
         <v>1159</v>
@@ -1651,13 +1633,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1665,13 +1647,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4">
         <v>899</v>
@@ -1679,13 +1661,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4">
         <v>896</v>
@@ -1693,13 +1675,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4">
         <v>900</v>
@@ -1707,13 +1689,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42" s="4">
         <v>898</v>
@@ -1721,27 +1703,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1749,13 +1731,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D45" s="4">
         <v>471</v>
@@ -1763,13 +1745,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1777,13 +1759,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1791,27 +1773,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1819,13 +1801,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1833,13 +1815,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1847,13 +1829,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1861,13 +1843,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1875,13 +1857,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1889,13 +1871,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1903,13 +1885,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1917,13 +1899,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1931,13 +1913,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4">
         <v>910</v>
@@ -1945,13 +1927,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1959,13 +1941,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1973,13 +1955,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1987,13 +1969,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -2001,13 +1983,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -2015,41 +1997,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2057,27 +2039,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2085,13 +2067,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2099,13 +2081,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>211</v>
@@ -2113,27 +2095,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D72" s="4">
         <v>1166</v>
@@ -2141,27 +2123,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4">
         <v>820</v>
@@ -2169,13 +2151,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D75" s="4">
         <v>819</v>
@@ -2183,13 +2165,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D76" s="4">
         <v>553</v>
@@ -2197,13 +2179,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D77" s="4">
         <v>433</v>
@@ -2211,13 +2193,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D78" s="4">
         <v>72</v>
@@ -2225,13 +2207,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2239,13 +2221,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2253,27 +2235,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2281,13 +2263,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2295,13 +2277,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D84" s="4">
         <v>994</v>
@@ -2309,13 +2291,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D85" s="4">
         <v>695</v>
@@ -2323,27 +2305,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2351,27 +2333,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2379,13 +2361,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4">
         <v>53</v>
@@ -2393,13 +2375,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D91" s="4">
         <v>107</v>
@@ -2407,13 +2389,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D92" s="4">
         <v>747</v>
@@ -2421,13 +2403,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D93" s="4">
         <v>449</v>
@@ -2435,13 +2417,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2449,13 +2431,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D95" s="4">
         <v>163</v>
@@ -2463,13 +2445,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D96" s="4">
         <v>799</v>
@@ -2477,13 +2459,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4">
         <v>1127</v>
@@ -2491,13 +2473,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D98" s="4">
         <v>569</v>
@@ -2505,13 +2487,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D99" s="4">
         <v>762</v>
@@ -2519,13 +2501,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2533,13 +2515,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D101" s="4">
         <v>211</v>
@@ -2547,55 +2529,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2603,13 +2585,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2622,23 +2604,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D27 A73:D106 A29:D71">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D56 A59:D106 B57:D58">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:D72">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D28">
+  <conditionalFormatting sqref="A57:A58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E828609-F6D4-4B0F-90A9-FF6DE8140D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9948E-ED14-4DEE-9044-184A7702706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,15 +227,9 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -455,9 +443,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -654,6 +639,21 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,34 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1101,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1129,13 +1156,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1143,27 +1170,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1171,13 +1198,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>105</v>
@@ -1185,13 +1212,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>103</v>
@@ -1199,41 +1226,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1241,13 +1268,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>809</v>
@@ -1255,13 +1282,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>1046</v>
@@ -1269,13 +1296,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
         <v>1045</v>
@@ -1283,13 +1310,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="4">
         <v>103</v>
@@ -1297,13 +1324,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>33</v>
@@ -1311,13 +1338,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>31</v>
@@ -1325,13 +1352,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1339,13 +1366,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -1353,13 +1380,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1367,27 +1394,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -1395,13 +1422,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -1409,13 +1436,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -1423,13 +1450,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1437,13 +1464,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1451,13 +1478,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D25" s="4">
         <v>52</v>
@@ -1465,13 +1492,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4">
         <v>109</v>
@@ -1479,13 +1506,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4">
         <v>105</v>
@@ -1493,13 +1520,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D28" s="4">
         <v>1160</v>
@@ -1507,13 +1534,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="4">
         <v>103</v>
@@ -1521,13 +1548,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1535,13 +1562,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1549,13 +1576,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1563,13 +1590,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1577,13 +1604,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1591,41 +1618,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4">
         <v>1159</v>
@@ -1633,13 +1660,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1647,13 +1674,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D39" s="4">
         <v>899</v>
@@ -1661,13 +1688,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="4">
         <v>896</v>
@@ -1675,13 +1702,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="4">
         <v>900</v>
@@ -1689,13 +1716,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4">
         <v>898</v>
@@ -1703,27 +1730,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1731,13 +1758,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D45" s="4">
         <v>471</v>
@@ -1745,13 +1772,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1759,13 +1786,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1773,27 +1800,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1801,27 +1828,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1829,13 +1856,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1843,13 +1870,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1857,13 +1884,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1871,13 +1898,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1885,13 +1912,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1899,13 +1926,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1913,13 +1940,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4">
         <v>910</v>
@@ -1927,13 +1954,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1941,13 +1968,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1955,13 +1982,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1969,13 +1996,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1983,13 +2010,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -1997,41 +2024,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2039,27 +2066,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2067,13 +2094,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2081,13 +2108,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4">
         <v>211</v>
@@ -2095,27 +2122,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D72" s="4">
         <v>1166</v>
@@ -2123,27 +2150,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D74" s="4">
         <v>820</v>
@@ -2151,13 +2178,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D75" s="4">
         <v>819</v>
@@ -2165,13 +2192,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4">
         <v>553</v>
@@ -2179,13 +2206,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D77" s="4">
         <v>433</v>
@@ -2193,13 +2220,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>72</v>
@@ -2207,13 +2234,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2221,13 +2248,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2235,27 +2262,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2263,13 +2290,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2277,13 +2304,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D84" s="4">
         <v>994</v>
@@ -2291,13 +2318,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D85" s="4">
         <v>695</v>
@@ -2305,27 +2332,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2333,27 +2360,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2361,13 +2388,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4">
         <v>53</v>
@@ -2375,13 +2402,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4">
         <v>107</v>
@@ -2389,13 +2416,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D92" s="4">
         <v>747</v>
@@ -2403,13 +2430,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D93" s="4">
         <v>449</v>
@@ -2417,13 +2444,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2431,13 +2458,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4">
         <v>163</v>
@@ -2445,13 +2472,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D96" s="4">
         <v>799</v>
@@ -2459,13 +2486,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D97" s="4">
         <v>1127</v>
@@ -2473,13 +2500,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D98" s="4">
         <v>569</v>
@@ -2487,13 +2514,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D99" s="4">
         <v>762</v>
@@ -2501,13 +2528,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2515,13 +2542,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4">
         <v>211</v>
@@ -2529,55 +2556,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2585,13 +2612,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2604,18 +2631,33 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D56 A59:D106 B57:D58">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D4 A74:D106 A63:D72 B61:D62 A51:D60 A6:D49">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A58">
+  <conditionalFormatting sqref="A73:D73">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A73))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A62">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:D50">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A50))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:D5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
+      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9948E-ED14-4DEE-9044-184A7702706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEE6CB0-7EA7-4E2C-85F2-0F8E9D8A692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="203">
   <si>
     <t>Complemento</t>
   </si>
@@ -578,24 +578,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -654,6 +636,18 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -758,34 +752,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1128,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,13 +1151,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1198,7 +1165,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>161</v>
@@ -1520,7 +1487,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>161</v>
@@ -1548,7 +1515,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>161</v>
@@ -1562,7 +1529,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>161</v>
@@ -1576,7 +1543,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>161</v>
@@ -1590,7 +1557,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>161</v>
@@ -1646,7 +1613,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>161</v>
@@ -1744,13 +1711,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1828,7 +1795,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>161</v>
@@ -1870,13 +1837,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1884,41 +1851,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1926,7 +1893,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>161</v>
@@ -1935,54 +1902,54 @@
         <v>57</v>
       </c>
       <c r="D57" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>161</v>
@@ -1991,26 +1958,26 @@
         <v>62</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>161</v>
@@ -2018,13 +1985,13 @@
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="4">
-        <v>2</v>
+      <c r="D63" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>161</v>
@@ -2033,77 +2000,77 @@
         <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>130</v>
+        <v>66</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>118</v>
+        <v>200</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1172</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2136,7 +2103,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>161</v>
@@ -2150,7 +2117,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>161</v>
@@ -2528,13 +2495,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2631,33 +2598,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D4 A74:D106 A63:D72 B61:D62 A51:D60 A6:D49">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A2:D66 A70:D106">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:D73">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A73))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D5">
+  <conditionalFormatting sqref="A67:D69">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A5))&gt;0</formula>
+      <formula>LEN(TRIM(A67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEE6CB0-7EA7-4E2C-85F2-0F8E9D8A692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F8AAA-C15F-4EE1-8147-0828F0CAAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="204">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>S020118</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -626,12 +620,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -648,6 +636,21 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:D69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1123,13 +1126,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1137,27 +1140,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1165,10 +1168,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1182,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1193,41 +1196,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1238,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1249,10 +1252,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1263,10 +1266,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1280,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1294,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1319,13 +1322,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1336,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -1350,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1361,16 +1364,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1381,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1392,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -1420,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
@@ -1434,7 +1437,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1448,7 +1451,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1459,10 +1462,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1473,10 +1476,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1487,13 +1490,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D28" s="4">
         <v>1160</v>
@@ -1504,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1515,13 +1518,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1529,13 +1532,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1543,13 +1546,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1557,13 +1560,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1574,7 +1577,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1585,16 +1588,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,27 +1605,27 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,7 +1633,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>37</v>
@@ -1644,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1658,7 +1661,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1672,7 +1675,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1686,7 +1689,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1697,27 +1700,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1725,13 +1728,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D45" s="4">
         <v>471</v>
@@ -1742,7 +1745,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1756,7 +1759,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1767,27 +1770,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1795,10 +1798,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1812,7 +1815,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1826,7 +1829,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1840,7 +1843,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1854,7 +1857,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>54</v>
@@ -1868,7 +1871,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>56</v>
@@ -1879,10 +1882,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
@@ -1893,10 +1896,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -1910,7 +1913,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>59</v>
@@ -1924,7 +1927,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>61</v>
@@ -1935,13 +1938,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1949,667 +1952,681 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="D62" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>128</v>
+        <v>63</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1172</v>
+        <v>169</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D68" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D69" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="D70" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>133</v>
+        <v>67</v>
+      </c>
+      <c r="D71" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1166</v>
+        <v>131</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="D73" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="D74" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D76" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="D77" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D78" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D79" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>137</v>
+        <v>76</v>
+      </c>
+      <c r="D81" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="4">
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D84" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D85" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="D86" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>118</v>
+        <v>83</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D91" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4">
-        <v>747</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D93" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="D94" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D97" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="D100" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="D101" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
+      </c>
+      <c r="D102" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D106" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
-      <sortCondition ref="A1:A106"/>
+  <autoFilter ref="A1:D107" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
+      <sortCondition ref="A1:A107"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D66 A70:D106">
+  <conditionalFormatting sqref="A2:D59 A63:D107">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:D69">
+  <conditionalFormatting sqref="A60:D62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A67))&gt;0</formula>
+      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F8AAA-C15F-4EE1-8147-0828F0CAAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163B681-C5D9-4298-B9DE-D33DA04497CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="202">
   <si>
     <t>Complemento</t>
   </si>
@@ -537,12 +537,6 @@
   </si>
   <si>
     <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
@@ -755,16 +749,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1096,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,27 +1125,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1168,7 +1153,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>159</v>
@@ -1406,7 +1391,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>159</v>
@@ -1490,13 +1475,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" s="4">
         <v>1160</v>
@@ -1518,7 +1503,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>159</v>
@@ -1532,7 +1517,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>159</v>
@@ -1546,7 +1531,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>159</v>
@@ -1560,7 +1545,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>159</v>
@@ -1616,7 +1601,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>159</v>
@@ -1700,13 +1685,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>117</v>
@@ -1714,13 +1699,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1798,7 +1783,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>159</v>
@@ -1882,7 +1867,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>159</v>
@@ -1896,7 +1881,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>159</v>
@@ -1938,13 +1923,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1952,13 +1937,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1966,13 +1951,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -2036,13 +2021,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>117</v>
@@ -2050,13 +2035,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2064,13 +2049,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2078,13 +2063,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2120,7 +2105,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>159</v>
@@ -2134,7 +2119,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>159</v>
@@ -2400,7 +2385,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>161</v>
@@ -2512,13 +2497,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2554,79 +2539,60 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>109</v>
+        <v>151</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D107" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
-      <sortCondition ref="A1:A107"/>
+  <autoFilter ref="A1:D106" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
+      <sortCondition ref="A1:A106"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A63:D107">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D106">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D62">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3B717-A805-4071-824A-02361D7AEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7C660-A6D0-4638-AADB-11A89BE72E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -910,7 +910,7 @@
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="20">
     <dxf>
       <border>
         <bottom style="thin">
@@ -922,8 +922,11 @@
     </dxf>
     <dxf>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
-          <color rgb="FF0070C0"/>
+          <color rgb="FF00B0F0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1018,27 +1021,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,6 +1403,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>168</v>
       </c>
@@ -1447,8 +1432,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>199</v>
+      <c r="A4" s="8">
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>215</v>
@@ -1476,8 +1461,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>12</v>
+      <c r="A5" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>188</v>
@@ -1505,6 +1490,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1520,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>105</v>
@@ -1561,7 +1549,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>108</v>
@@ -1589,6 +1577,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>149</v>
       </c>
@@ -1615,8 +1606,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>201</v>
+      <c r="A10" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -1644,8 +1635,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>211</v>
+      <c r="A11" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>111</v>
@@ -1673,6 +1664,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1694,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1729,7 +1723,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1757,6 +1751,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>101</v>
       </c>
@@ -1783,8 +1780,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>203</v>
+      <c r="A16" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -1812,8 +1809,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>212</v>
+      <c r="A17" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1841,6 +1838,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>112</v>
       </c>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -1925,6 +1925,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>167</v>
       </c>
@@ -1951,8 +1954,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>205</v>
+      <c r="A22" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -1980,9 +1983,6 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -2035,9 +2035,6 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="B25" s="3" t="s">
         <v>115</v>
       </c>
@@ -2064,9 +2061,6 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="B26" s="3" t="s">
         <v>116</v>
       </c>
@@ -2119,9 +2113,6 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2148,9 +2139,6 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="B29" s="3" t="s">
         <v>180</v>
       </c>
@@ -2203,9 +2191,6 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="B31" s="3" t="s">
         <v>182</v>
       </c>
@@ -2232,9 +2217,6 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="B32" s="3" t="s">
         <v>183</v>
       </c>
@@ -4138,17 +4120,7 @@
       <sortCondition ref="B1:B104"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:G1">
-    <cfRule type="expression" dxfId="21" priority="48">
-      <formula>$F1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E104">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="23">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4156,7 +4128,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4164,7 +4136,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4172,7 +4144,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A12">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4180,7 +4152,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="A14">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4188,7 +4160,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A16">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4196,7 +4168,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4204,7 +4176,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A20">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4212,7 +4184,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A22">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4220,14 +4192,14 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F104">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
+  <conditionalFormatting sqref="B1:G1">
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>$F1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G104">
+  <conditionalFormatting sqref="B2:G104">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
+      <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7C660-A6D0-4638-AADB-11A89BE72E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78417E-81E2-488A-8498-4574BF89C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="219">
   <si>
     <t>Complemento</t>
   </si>
@@ -800,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -864,6 +864,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1A7ABC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1A7ABC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -871,7 +882,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -902,6 +913,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1334,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,6 +1385,12 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>217</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4192,7 +4212,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:G1">
+  <conditionalFormatting sqref="B1:I1">
     <cfRule type="expression" dxfId="1" priority="48">
       <formula>$F1&lt;&gt;""</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78417E-81E2-488A-8498-4574BF89C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD63A68-C8D6-4822-9C21-40CF60845684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="221">
   <si>
     <t>Complemento</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Mais</t>
+  </si>
+  <si>
+    <t>Menos</t>
   </si>
 </sst>
 </file>
@@ -927,8 +933,11 @@
   <dxfs count="20">
     <dxf>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
-          <color rgb="FF0070C0"/>
+          <color rgb="FF00B0F0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -936,11 +945,8 @@
     </dxf>
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
-          <color rgb="FF00B0F0"/>
+          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1349,7 +1355,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1367,8 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1387,10 +1394,10 @@
         <v>217</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4212,14 +4219,14 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="1" priority="48">
-      <formula>$F1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B2:G104">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G104">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
+  <conditionalFormatting sqref="B1:I1">
+    <cfRule type="expression" dxfId="0" priority="48">
+      <formula>$F1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD63A68-C8D6-4822-9C21-40CF60845684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982854CA-A808-4EF3-8F78-8BF239F4C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="222">
   <si>
     <t>Complemento</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>Menos</t>
+  </si>
+  <si>
+    <t>INFOs Loja:</t>
   </si>
 </sst>
 </file>
@@ -1354,9 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1372,8 +1373,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>198</v>
+      <c r="A1" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1401,8 +1402,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>209</v>
+      <c r="A2" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>99</v>
@@ -1430,8 +1431,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>199</v>
+      <c r="A3" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>168</v>
@@ -1459,8 +1460,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>12</v>
+      <c r="A4" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>215</v>
@@ -1488,8 +1489,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>200</v>
+      <c r="A5" s="8">
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>188</v>
@@ -1517,8 +1518,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>210</v>
+      <c r="A6" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1546,8 +1547,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>201</v>
+      <c r="A7" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>105</v>
@@ -1575,8 +1576,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>211</v>
+      <c r="A8" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>108</v>
@@ -1604,8 +1605,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>202</v>
+      <c r="A9" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>149</v>
@@ -1633,8 +1634,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>211</v>
+      <c r="A10" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -1662,8 +1663,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>203</v>
+      <c r="A11" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>111</v>
@@ -1691,8 +1692,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>212</v>
+      <c r="A12" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1720,8 +1721,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>204</v>
+      <c r="A13" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1749,8 +1750,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>213</v>
+      <c r="A14" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1778,8 +1779,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>205</v>
+      <c r="A15" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>101</v>
@@ -1807,8 +1808,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>211</v>
+      <c r="A16" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -1836,8 +1837,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>206</v>
+      <c r="A17" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1865,8 +1866,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>212</v>
+      <c r="A18" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>112</v>
@@ -1894,8 +1895,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>207</v>
+      <c r="A19" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
@@ -1923,8 +1924,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>211</v>
+      <c r="A20" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -1952,8 +1953,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>208</v>
+      <c r="A21" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>167</v>
@@ -1981,8 +1982,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>212</v>
+      <c r="A22" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -2010,6 +2011,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -4147,7 +4151,7 @@
       <sortCondition ref="B1:B104"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4155,7 +4159,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4163,7 +4167,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4171,7 +4175,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A13">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4179,7 +4183,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A15">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4187,7 +4191,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+  <conditionalFormatting sqref="A17">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4195,7 +4199,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A19">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4203,7 +4207,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="A21">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4211,7 +4215,7 @@
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
+  <conditionalFormatting sqref="A23">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
@@ -4224,7 +4228,7 @@
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:I1">
+  <conditionalFormatting sqref="A1:I1">
     <cfRule type="expression" dxfId="0" priority="48">
       <formula>$F1&lt;&gt;""</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96AD09-BC42-49ED-B9C9-2A75540E78D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E449CF-87E2-47A5-BE45-BCB6E9A1E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -227,12 +227,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -645,6 +639,12 @@
   </si>
   <si>
     <t>S050018</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -775,15 +775,6 @@
         <top/>
         <bottom style="thin">
           <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1101,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1129,13 +1120,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1143,27 +1134,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1171,10 +1162,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1188,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1199,41 +1190,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4">
         <v>831</v>
@@ -1241,10 +1232,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1258,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1269,10 +1260,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1286,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1300,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1314,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1325,13 +1316,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1342,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -1356,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1367,16 +1358,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1398,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1409,10 +1400,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -1426,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
@@ -1440,7 +1431,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1454,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1465,10 +1456,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1479,10 +1470,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1493,13 +1484,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="4">
         <v>1160</v>
@@ -1510,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1521,13 +1512,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1535,13 +1526,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1549,13 +1540,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1563,13 +1554,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1577,13 +1568,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1591,16 +1582,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,21 +1599,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1636,7 +1627,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1650,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1664,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1678,7 +1669,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1692,7 +1683,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1703,27 +1694,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1731,13 +1722,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="4">
         <v>471</v>
@@ -1748,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1762,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>42</v>
@@ -1773,27 +1764,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1801,10 +1792,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>44</v>
@@ -1818,7 +1809,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>46</v>
@@ -1832,7 +1823,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>48</v>
@@ -1846,7 +1837,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>50</v>
@@ -1860,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>52</v>
@@ -1874,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>54</v>
@@ -1885,10 +1876,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1916,7 +1907,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1930,7 +1921,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -1941,13 +1932,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1955,13 +1946,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1969,13 +1960,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1986,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>61</v>
@@ -1997,69 +1988,69 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2067,13 +2058,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2081,13 +2072,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2095,13 +2086,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -2109,41 +2100,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D73" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2151,13 +2142,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2165,13 +2156,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2179,13 +2170,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D77" s="4">
         <v>553</v>
@@ -2193,13 +2184,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" s="4">
         <v>433</v>
@@ -2207,13 +2198,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
         <v>72</v>
@@ -2221,13 +2212,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D80" s="4">
         <v>86</v>
@@ -2235,13 +2226,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
         <v>87</v>
@@ -2249,27 +2240,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D83" s="4">
         <v>55</v>
@@ -2277,13 +2268,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D84" s="4">
         <v>54</v>
@@ -2291,13 +2282,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D85" s="4">
         <v>994</v>
@@ -2305,13 +2296,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D86" s="4">
         <v>695</v>
@@ -2319,27 +2310,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2347,27 +2338,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2375,13 +2366,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2389,13 +2380,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2403,13 +2394,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="4">
         <v>437</v>
@@ -2417,13 +2408,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D94" s="4">
         <v>449</v>
@@ -2431,13 +2422,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D95" s="4">
         <v>170</v>
@@ -2445,13 +2436,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D96" s="4">
         <v>163</v>
@@ -2459,13 +2450,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D97" s="4">
         <v>799</v>
@@ -2473,13 +2464,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D98" s="4">
         <v>1127</v>
@@ -2487,13 +2478,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4">
         <v>569</v>
@@ -2501,13 +2492,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4">
         <v>762</v>
@@ -2515,13 +2506,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2529,13 +2520,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2543,41 +2534,41 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2585,13 +2576,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2603,24 +2594,19 @@
       <sortCondition ref="A1:A106"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:D9 A11:D33 A35:D106">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="2" priority="53">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D65 A67:D106">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="52">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:D34">
+  <conditionalFormatting sqref="A66:D66">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
+      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E449CF-87E2-47A5-BE45-BCB6E9A1E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02394A1-A207-4F58-AF92-FCDA2EB96966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -749,16 +749,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1093,7 +1084,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2184,7 @@
         <v>149</v>
       </c>
       <c r="D78" s="4">
-        <v>433</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,18 +2586,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="1" priority="53">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D65 A67:D106">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D106">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D66">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02394A1-A207-4F58-AF92-FCDA2EB96966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820E60C-ABF2-4E49-AFBE-4B2F51EE93F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -491,9 +491,6 @@
     <t>S010040</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE - PACOTE</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1084,7 +1093,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1114,7 +1123,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>98</v>
@@ -1125,27 +1134,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1153,10 +1162,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1170,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1184,7 +1193,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>104</v>
@@ -1198,7 +1207,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>107</v>
@@ -1212,7 +1221,7 @@
         <v>147</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>148</v>
@@ -1223,10 +1232,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1240,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1254,7 +1263,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1268,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1282,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1296,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1310,7 +1319,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>100</v>
@@ -1324,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -1338,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1352,7 +1361,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>111</v>
@@ -1366,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1380,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1391,10 +1400,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -1408,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
@@ -1422,7 +1431,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1436,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1450,7 +1459,7 @@
         <v>113</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1464,7 +1473,7 @@
         <v>114</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1475,13 +1484,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="4">
         <v>1160</v>
@@ -1492,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1503,10 +1512,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>115</v>
@@ -1517,10 +1526,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>115</v>
@@ -1531,10 +1540,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>115</v>
@@ -1545,10 +1554,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>115</v>
@@ -1559,13 +1568,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1576,7 +1585,7 @@
         <v>116</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>117</v>
@@ -1590,7 +1599,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
@@ -1601,10 +1610,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1618,7 +1627,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1632,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1646,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1660,7 +1669,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1674,7 +1683,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1685,13 +1694,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>112</v>
@@ -1699,13 +1708,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1716,7 +1725,7 @@
         <v>101</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>102</v>
@@ -1730,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1744,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>42</v>
@@ -1758,7 +1767,7 @@
         <v>119</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>120</v>
@@ -1769,13 +1778,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1783,10 +1792,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>44</v>
@@ -1800,7 +1809,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>46</v>
@@ -1814,7 +1823,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>48</v>
@@ -1828,7 +1837,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>50</v>
@@ -1842,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>52</v>
@@ -1856,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>54</v>
@@ -1867,10 +1876,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1881,10 +1890,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1898,7 +1907,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1912,7 +1921,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -1923,13 +1932,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1937,13 +1946,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1951,13 +1960,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1968,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>61</v>
@@ -1982,7 +1991,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>61</v>
@@ -1996,7 +2005,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>61</v>
@@ -2007,13 +2016,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D66" s="4">
         <v>1181</v>
@@ -2021,13 +2030,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>112</v>
@@ -2035,13 +2044,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2049,13 +2058,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2063,13 +2072,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2080,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>63</v>
@@ -2094,7 +2103,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>126</v>
@@ -2105,10 +2114,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>64</v>
@@ -2119,10 +2128,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>128</v>
@@ -2136,7 +2145,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>66</v>
@@ -2150,7 +2159,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>66</v>
@@ -2164,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>69</v>
@@ -2175,10 +2184,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>149</v>
@@ -2192,7 +2201,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>70</v>
@@ -2206,7 +2215,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>72</v>
@@ -2220,7 +2229,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>72</v>
@@ -2234,7 +2243,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>72</v>
@@ -2248,7 +2257,7 @@
         <v>132</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>74</v>
@@ -2262,7 +2271,7 @@
         <v>133</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>74</v>
@@ -2276,7 +2285,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>76</v>
@@ -2290,7 +2299,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>76</v>
@@ -2304,7 +2313,7 @@
         <v>134</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>135</v>
@@ -2318,7 +2327,7 @@
         <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>79</v>
@@ -2332,7 +2341,7 @@
         <v>136</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>137</v>
@@ -2346,7 +2355,7 @@
         <v>80</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>81</v>
@@ -2360,7 +2369,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>83</v>
@@ -2374,7 +2383,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>85</v>
@@ -2385,10 +2394,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>138</v>
@@ -2402,7 +2411,7 @@
         <v>139</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>140</v>
@@ -2416,7 +2425,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>87</v>
@@ -2430,7 +2439,7 @@
         <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>87</v>
@@ -2444,7 +2453,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>87</v>
@@ -2458,7 +2467,7 @@
         <v>141</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>90</v>
@@ -2472,7 +2481,7 @@
         <v>91</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>90</v>
@@ -2486,7 +2495,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>90</v>
@@ -2497,13 +2506,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2514,7 +2523,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>94</v>
@@ -2528,7 +2537,7 @@
         <v>142</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>143</v>
@@ -2542,7 +2551,7 @@
         <v>144</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>145</v>
@@ -2553,10 +2562,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>146</v>
@@ -2570,7 +2579,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>96</v>
@@ -2586,13 +2595,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="2" priority="54">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D106">
+  <conditionalFormatting sqref="A2:D77 A79:D106 B78:D78">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820E60C-ABF2-4E49-AFBE-4B2F51EE93F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFEBAC-2EC2-4096-85DB-163A351CFEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="198">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -480,12 +474,6 @@
   </si>
   <si>
     <t>S110036</t>
-  </si>
-  <si>
-    <t>BISCOITO - ROSQUINHA</t>
-  </si>
-  <si>
-    <t>S030006</t>
   </si>
   <si>
     <t>S010040</t>
@@ -749,16 +737,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1090,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1120,13 +1099,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1134,27 +1113,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1162,10 +1141,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1176,100 +1155,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>831</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
-        <v>809</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
-        <v>1045</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,69 +1256,69 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,307 +1326,307 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="4">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D26" s="4">
-        <v>109</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D28" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D29" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="D32" s="4">
-        <v>1178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="4">
-        <v>1179</v>
+      <c r="D33" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>118</v>
+        <v>31</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>112</v>
+        <v>33</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4">
-        <v>1162</v>
+        <v>899</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>896</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,657 +1634,657 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="4">
-        <v>900</v>
+        <v>159</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D42" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="D43" s="4">
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="4">
-        <v>166</v>
+        <v>118</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D47" s="4">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>42</v>
+      </c>
+      <c r="D48" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D50" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D55" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4">
-        <v>910</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="4">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>122</v>
+        <v>196</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D66" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>112</v>
+        <v>183</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D68" s="4">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4">
-        <v>1173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1174</v>
+        <v>124</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D71" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>127</v>
+      <c r="D72" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D73" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D74" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D75" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="D76" s="4">
-        <v>819</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D77" s="4">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D78" s="4">
-        <v>1168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D79" s="4">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="4">
-        <v>86</v>
+        <v>70</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D81" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>131</v>
+      <c r="D82" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D83" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="4">
-        <v>994</v>
+        <v>133</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,13 +2292,13 @@
         <v>134</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,7 +2306,7 @@
         <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>79</v>
@@ -2338,114 +2317,114 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="D89" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="D91" s="4">
-        <v>53</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D92" s="4">
-        <v>107</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D93" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D94" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D95" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D96" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,160 +2432,127 @@
         <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D97" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D98" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="D99" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D100" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="4">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="4">
-        <v>211</v>
+        <v>143</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>112</v>
+        <v>144</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" s="4">
+        <v>94</v>
+      </c>
+      <c r="D104" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D106" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
-      <sortCondition ref="A1:A106"/>
+  <autoFilter ref="A1:D104" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
+      <sortCondition ref="A1:A104"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="1" priority="54">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D77 A79:D106 B78:D78">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D104">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFEBAC-2EC2-4096-85DB-163A351CFEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E461E1A-786D-40DD-A6EB-E8511AE5A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -575,9 +575,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1071,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1136,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>149</v>
@@ -1141,7 +1150,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>149</v>
@@ -1183,7 +1192,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>149</v>
@@ -1519,13 +1528,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1743,7 +1752,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>149</v>
@@ -1841,7 +1850,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>149</v>
@@ -1850,7 +1859,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,13 +1892,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1897,13 +1906,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1911,13 +1920,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1967,13 +1976,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1995,13 +2004,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D66" s="4">
         <v>1172</v>
@@ -2009,13 +2018,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D67" s="4">
         <v>1173</v>
@@ -2023,13 +2032,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" s="4">
         <v>1174</v>
@@ -2079,7 +2088,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>149</v>
@@ -2135,7 +2144,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>151</v>
@@ -2345,7 +2354,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>151</v>
@@ -2546,13 +2555,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="54">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D104">
+  <conditionalFormatting sqref="A2:D54 A56:D104">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:D55">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E461E1A-786D-40DD-A6EB-E8511AE5A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366C5D5-78BF-4117-8473-478D95BD8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="195">
   <si>
     <t>Complemento</t>
   </si>
@@ -254,9 +254,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -423,12 +420,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -737,16 +728,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1078,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1108,13 +1090,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1122,27 +1104,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1150,10 +1132,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1164,38 +1146,38 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1209,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1220,10 +1202,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1237,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1251,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1265,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1276,13 +1258,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1293,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1307,7 +1289,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1318,16 +1300,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1349,7 +1331,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1360,10 +1342,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1377,7 +1359,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1391,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1405,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1416,10 +1398,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1430,10 +1412,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1444,13 +1426,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D26" s="4">
         <v>1160</v>
@@ -1461,7 +1443,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1472,13 +1454,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4">
         <v>1176</v>
@@ -1486,13 +1468,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4">
         <v>1177</v>
@@ -1500,13 +1482,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="4">
         <v>1178</v>
@@ -1514,13 +1496,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="4">
         <v>1179</v>
@@ -1528,13 +1510,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1542,16 +1524,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,21 +1541,21 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1587,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>33</v>
@@ -1601,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>35</v>
@@ -1615,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1629,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1643,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1654,27 +1636,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D42" s="4">
         <v>750</v>
@@ -1682,13 +1664,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D43" s="4">
         <v>471</v>
@@ -1699,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1713,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1724,27 +1706,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1752,10 +1734,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>42</v>
@@ -1769,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1783,7 +1765,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1797,7 +1779,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1811,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1825,7 +1807,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1836,10 +1818,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>53</v>
@@ -1850,10 +1832,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1867,7 +1849,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1881,7 +1863,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -1892,13 +1874,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1906,13 +1888,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1920,13 +1902,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1937,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -1948,41 +1930,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1990,27 +1972,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D66" s="4">
         <v>1172</v>
@@ -2018,13 +2000,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D67" s="4">
         <v>1173</v>
@@ -2032,13 +2014,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D68" s="4">
         <v>1174</v>
@@ -2049,7 +2031,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
@@ -2060,24 +2042,24 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>62</v>
@@ -2088,13 +2070,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2105,7 +2087,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>64</v>
@@ -2119,7 +2101,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>64</v>
@@ -2133,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>67</v>
@@ -2144,13 +2126,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D76" s="4">
         <v>1168</v>
@@ -2158,10 +2140,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>68</v>
@@ -2175,7 +2157,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>70</v>
@@ -2186,16 +2168,16 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D79" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,94 +2185,94 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>129</v>
+        <v>71</v>
+      </c>
+      <c r="D80" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D81" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D82" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="4">
-        <v>994</v>
+        <v>130</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D84" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2298,156 +2280,156 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="D87" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D88" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D89" s="4">
-        <v>53</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D90" s="4">
-        <v>107</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D91" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="D92" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D93" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D94" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D95" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D96" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="D97" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,118 +2437,85 @@
         <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D98" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D100" s="4">
-        <v>211</v>
+        <v>140</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>110</v>
+      <c r="D101" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="4">
+        <v>93</v>
+      </c>
+      <c r="D102" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D104" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
-      <sortCondition ref="A1:A104"/>
+  <autoFilter ref="A1:D102" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D102">
+      <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="1" priority="55">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D54 A56:D104">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D102">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D55">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366C5D5-78BF-4117-8473-478D95BD8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4DB66-A19B-4BA3-BA5B-E7457D13322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="193">
   <si>
     <t>Complemento</t>
   </si>
@@ -239,9 +239,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>S010040</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -620,10 +611,13 @@
     <t>S080026</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
-  </si>
-  <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
 </sst>
 </file>
@@ -728,7 +722,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1063,7 +1066,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+      <selection activeCell="A75" sqref="A75:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1090,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1104,27 +1107,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1132,10 +1135,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1146,38 +1149,38 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1191,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1202,10 +1205,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1219,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1233,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1247,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1258,13 +1261,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1275,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1289,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1300,16 +1303,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1331,7 +1334,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1342,10 +1345,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1359,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1373,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1387,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1398,10 +1401,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1412,10 +1415,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1426,13 +1429,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D26" s="4">
         <v>1160</v>
@@ -1443,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1454,13 +1457,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4">
         <v>1176</v>
@@ -1468,13 +1471,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>1177</v>
@@ -1482,13 +1485,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4">
         <v>1178</v>
@@ -1496,13 +1499,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="4">
         <v>1179</v>
@@ -1510,13 +1513,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1524,16 +1527,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,21 +1544,21 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1569,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>33</v>
@@ -1583,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>35</v>
@@ -1597,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1611,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1625,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1636,27 +1639,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D42" s="4">
         <v>750</v>
@@ -1664,13 +1667,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D43" s="4">
         <v>471</v>
@@ -1681,7 +1684,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1695,7 +1698,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1706,27 +1709,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1734,10 +1737,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>42</v>
@@ -1751,7 +1754,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1765,7 +1768,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1779,7 +1782,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1793,7 +1796,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1807,7 +1810,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1818,10 +1821,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>53</v>
@@ -1832,10 +1835,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1849,7 +1852,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1863,7 +1866,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -1874,13 +1877,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1888,13 +1891,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1902,13 +1905,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1919,7 +1922,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -1930,41 +1933,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1972,27 +1975,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D66" s="4">
         <v>1172</v>
@@ -2000,13 +2003,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D67" s="4">
         <v>1173</v>
@@ -2014,13 +2017,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D68" s="4">
         <v>1174</v>
@@ -2031,7 +2034,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
@@ -2042,24 +2045,24 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>62</v>
@@ -2070,13 +2073,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2087,7 +2090,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>64</v>
@@ -2101,7 +2104,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>64</v>
@@ -2112,41 +2115,41 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D75" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="D76" s="4">
-        <v>1168</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
         <v>72</v>
@@ -2154,13 +2157,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D78" s="4">
         <v>86</v>
@@ -2168,13 +2171,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
         <v>55</v>
@@ -2182,13 +2185,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4">
         <v>54</v>
@@ -2196,13 +2199,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
         <v>994</v>
@@ -2210,13 +2213,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D82" s="4">
         <v>695</v>
@@ -2224,27 +2227,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2252,27 +2255,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2280,13 +2283,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D87" s="4">
         <v>53</v>
@@ -2294,13 +2297,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D88" s="4">
         <v>107</v>
@@ -2308,13 +2311,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89" s="4">
         <v>437</v>
@@ -2322,13 +2325,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D90" s="4">
         <v>449</v>
@@ -2336,13 +2339,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D91" s="4">
         <v>170</v>
@@ -2350,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92" s="4">
         <v>163</v>
@@ -2364,13 +2367,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="4">
         <v>799</v>
@@ -2378,13 +2381,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D94" s="4">
         <v>1127</v>
@@ -2392,13 +2395,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D95" s="4">
         <v>569</v>
@@ -2406,13 +2409,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D96" s="4">
         <v>762</v>
@@ -2420,13 +2423,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2434,13 +2437,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D98" s="4">
         <v>211</v>
@@ -2448,41 +2451,41 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2490,13 +2493,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2509,13 +2512,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="2" priority="56">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D102">
+  <conditionalFormatting sqref="A2:D74 A77:D102">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:D76">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4DB66-A19B-4BA3-BA5B-E7457D13322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5056F5F-6806-4646-AA2C-4135D07C9E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 30MT PC C/4</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:D76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1107,27 +1107,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1149,38 +1149,38 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1236,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1250,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1278,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1334,7 +1334,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1376,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1390,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="4">
         <v>1160</v>
@@ -1446,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
         <v>1176</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4">
         <v>1177</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
         <v>1178</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="4">
         <v>1179</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,21 +1544,21 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1572,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>33</v>
@@ -1586,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>35</v>
@@ -1600,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1628,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1639,27 +1639,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D42" s="4">
         <v>750</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D43" s="4">
         <v>471</v>
@@ -1684,7 +1684,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1698,7 +1698,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>42</v>
@@ -1754,7 +1754,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1765,27 +1765,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>40</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>103</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="4">
         <v>103</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="4">
         <v>1166</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D57" s="4">
         <v>745</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -1933,41 +1933,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1975,27 +1975,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D66" s="4">
         <v>1172</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" s="4">
         <v>1173</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4">
         <v>1174</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D69" s="4">
         <v>211</v>
@@ -2045,27 +2045,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="4">
         <v>1167</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D73" s="4">
         <v>820</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="4">
         <v>819</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" s="4">
         <v>1394</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76" s="4">
         <v>1393</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" s="4">
         <v>72</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D78" s="4">
         <v>86</v>
@@ -2171,13 +2171,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="4">
         <v>55</v>
@@ -2185,13 +2185,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" s="4">
         <v>54</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81" s="4">
         <v>994</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D82" s="4">
         <v>695</v>
@@ -2227,27 +2227,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2255,27 +2255,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D87" s="4">
         <v>53</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D88" s="4">
         <v>107</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="4">
         <v>437</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D90" s="4">
         <v>449</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>170</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D92" s="4">
         <v>163</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D93" s="4">
         <v>799</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D94" s="4">
         <v>1127</v>
@@ -2395,13 +2395,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95" s="4">
         <v>569</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" s="4">
         <v>762</v>
@@ -2423,13 +2423,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D98" s="4">
         <v>211</v>
@@ -2451,41 +2451,41 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2512,18 +2512,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D74 A77:D102">
+  <conditionalFormatting sqref="A2:D49 A51:D102">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:D76">
+  <conditionalFormatting sqref="A50:D50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A75))&gt;0</formula>
+      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5056F5F-6806-4646-AA2C-4135D07C9E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CCDE01-DB36-4655-854A-DD0F08EB4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="186">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,18 +119,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -260,15 +239,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -311,9 +284,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -341,30 +311,15 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X40 (PEQUENA)</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -380,36 +335,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -422,15 +362,9 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -446,9 +380,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -461,9 +392,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -488,15 +416,9 @@
     <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
@@ -509,18 +431,12 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
     <t>S010002</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -596,9 +512,6 @@
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
@@ -618,6 +531,72 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -700,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -717,21 +696,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1065,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1093,13 +1066,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1107,27 +1080,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
+      </c>
+      <c r="D3" s="6">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1135,10 +1108,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1149,38 +1122,38 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="D7" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1194,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1205,10 +1178,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1222,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1236,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1250,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1261,13 +1234,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1278,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1289,41 +1262,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>107</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -1331,13 +1304,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -1345,13 +1318,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
@@ -1359,41 +1332,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <v>52</v>
@@ -1401,13 +1374,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4">
         <v>109</v>
@@ -1415,13 +1388,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
         <v>105</v>
@@ -1429,13 +1402,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4">
         <v>1160</v>
@@ -1443,13 +1416,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4">
         <v>103</v>
@@ -1457,13 +1430,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4">
         <v>1176</v>
@@ -1471,13 +1444,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4">
         <v>1177</v>
@@ -1485,13 +1458,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4">
         <v>1178</v>
@@ -1499,13 +1472,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4">
         <v>1179</v>
@@ -1513,55 +1486,55 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="D33" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>107</v>
+        <v>26</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4">
         <v>1162</v>
@@ -1569,27 +1542,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D37" s="4">
         <v>899</v>
@@ -1597,13 +1570,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D38" s="4">
         <v>896</v>
@@ -1611,13 +1584,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
         <v>900</v>
@@ -1625,13 +1598,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D40" s="4">
         <v>898</v>
@@ -1639,27 +1612,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1456</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4">
         <v>750</v>
@@ -1667,13 +1640,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4">
         <v>471</v>
@@ -1681,13 +1654,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4">
         <v>166</v>
@@ -1695,13 +1668,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D45" s="4">
         <v>167</v>
@@ -1709,41 +1682,41 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="D46" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D48" s="4">
         <v>448</v>
@@ -1751,13 +1724,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D49" s="4">
         <v>80</v>
@@ -1765,13 +1738,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4">
         <v>1396</v>
@@ -1779,27 +1752,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D52" s="4">
         <v>40</v>
@@ -1807,13 +1780,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>103</v>
@@ -1821,13 +1794,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D54" s="4">
         <v>103</v>
@@ -1835,13 +1808,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D55" s="4">
         <v>1166</v>
@@ -1849,27 +1822,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D57" s="4">
         <v>745</v>
@@ -1877,13 +1850,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1891,13 +1864,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1905,13 +1878,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1919,13 +1892,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -1933,41 +1906,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="D62" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>119</v>
+        <v>51</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1975,27 +1948,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
+      </c>
+      <c r="D65" s="4">
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D66" s="4">
         <v>1172</v>
@@ -2003,13 +1976,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D67" s="4">
         <v>1173</v>
@@ -2017,13 +1990,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D68" s="4">
         <v>1174</v>
@@ -2031,13 +2004,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D69" s="4">
         <v>211</v>
@@ -2045,27 +2018,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="D70" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D71" s="4">
         <v>1167</v>
@@ -2073,13 +2046,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2087,13 +2060,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D73" s="4">
         <v>820</v>
@@ -2101,13 +2074,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D74" s="4">
         <v>819</v>
@@ -2115,13 +2088,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D75" s="4">
         <v>1394</v>
@@ -2129,13 +2102,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D76" s="4">
         <v>1393</v>
@@ -2143,13 +2116,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D77" s="4">
         <v>72</v>
@@ -2157,13 +2130,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D78" s="4">
         <v>86</v>
@@ -2171,13 +2144,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D79" s="4">
         <v>55</v>
@@ -2185,13 +2158,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D80" s="4">
         <v>54</v>
@@ -2199,13 +2172,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D81" s="4">
         <v>994</v>
@@ -2213,13 +2186,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D82" s="4">
         <v>695</v>
@@ -2227,69 +2200,69 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1030</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D86" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
         <v>53</v>
@@ -2297,13 +2270,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D88" s="4">
         <v>107</v>
@@ -2311,13 +2284,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D89" s="4">
         <v>437</v>
@@ -2325,13 +2298,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D90" s="4">
         <v>449</v>
@@ -2339,13 +2312,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D91" s="4">
         <v>170</v>
@@ -2353,13 +2326,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D92" s="4">
         <v>163</v>
@@ -2367,13 +2340,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D93" s="4">
         <v>799</v>
@@ -2381,13 +2354,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
         <v>1127</v>
@@ -2395,13 +2368,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D95" s="4">
         <v>569</v>
@@ -2409,13 +2382,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D96" s="4">
         <v>762</v>
@@ -2423,27 +2396,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D97" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D98" s="4">
         <v>211</v>
@@ -2451,79 +2424,69 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="D99" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="D100" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D101" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D102" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D102" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D102">
-      <sortCondition ref="A1:A102"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="1" priority="57">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D49 A51:D102">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D102">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CCDE01-DB36-4655-854A-DD0F08EB4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF3569-3581-4CDB-AA62-3D06572D867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,63 +1520,63 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1454</v>
+        <v>187</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4">
-        <v>1162</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>119</v>
@@ -1579,12 +1585,12 @@
         <v>30</v>
       </c>
       <c r="D38" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>119</v>
@@ -1593,12 +1599,12 @@
         <v>30</v>
       </c>
       <c r="D39" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>119</v>
@@ -1607,68 +1613,68 @@
         <v>30</v>
       </c>
       <c r="D40" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>1456</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4">
-        <v>750</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="D43" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>119</v>
@@ -1677,130 +1683,130 @@
         <v>35</v>
       </c>
       <c r="D45" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D46" s="4">
-        <v>272</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4">
-        <v>1157</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D48" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D49" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4">
-        <v>1416</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4">
-        <v>40</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D53" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="4">
         <v>103</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>119</v>
@@ -1817,54 +1823,54 @@
         <v>46</v>
       </c>
       <c r="D55" s="4">
-        <v>1166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="4">
-        <v>70</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="D58" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>119</v>
@@ -1878,7 +1884,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
@@ -1887,26 +1893,26 @@
         <v>152</v>
       </c>
       <c r="D60" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="D61" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>119</v>
@@ -1914,13 +1920,13 @@
       <c r="C62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="6">
-        <v>3</v>
+      <c r="D62" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>119</v>
@@ -1929,54 +1935,54 @@
         <v>51</v>
       </c>
       <c r="D63" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1181</v>
+        <v>51</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D65" s="4">
-        <v>874</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D66" s="4">
-        <v>1172</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>119</v>
@@ -1985,12 +1991,12 @@
         <v>147</v>
       </c>
       <c r="D67" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>119</v>
@@ -1999,60 +2005,60 @@
         <v>147</v>
       </c>
       <c r="D68" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D69" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="6">
-        <v>591</v>
+        <v>53</v>
+      </c>
+      <c r="D70" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1167</v>
+        <v>102</v>
+      </c>
+      <c r="D71" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2060,21 +2066,21 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D73" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>121</v>
@@ -2083,26 +2089,26 @@
         <v>56</v>
       </c>
       <c r="D74" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D75" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>121</v>
@@ -2111,54 +2117,54 @@
         <v>58</v>
       </c>
       <c r="D76" s="4">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" s="4">
-        <v>72</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D78" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D79" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>119</v>
@@ -2167,26 +2173,26 @@
         <v>62</v>
       </c>
       <c r="D80" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D81" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>119</v>
@@ -2195,152 +2201,152 @@
         <v>64</v>
       </c>
       <c r="D82" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D83" s="4">
-        <v>1457</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D84" s="4">
-        <v>1182</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="D85" s="4">
-        <v>1030</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D86" s="4">
-        <v>1468</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D87" s="4">
-        <v>53</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D88" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D89" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D91" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>119</v>
@@ -2349,26 +2355,26 @@
         <v>73</v>
       </c>
       <c r="D93" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D94" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>123</v>
@@ -2377,12 +2383,12 @@
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>123</v>
@@ -2391,90 +2397,104 @@
         <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D97" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D98" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D99" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="6">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="D100" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="4">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="D101" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="B103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D103" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2484,7 +2504,7 @@
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D102">
+  <conditionalFormatting sqref="A2:D103">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF3569-3581-4CDB-AA62-3D06572D867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79725F08-CBE2-4CF4-89C2-255B4C6781BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="187">
   <si>
     <t>Complemento</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -1042,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>119</v>
@@ -1282,13 +1279,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1338,7 +1335,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>120</v>
@@ -1347,12 +1344,12 @@
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>120</v>
@@ -1492,7 +1489,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>119</v>
@@ -1520,13 +1517,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D34" s="6">
         <v>1449</v>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -1632,7 +1629,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
@@ -1716,7 +1713,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>119</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>120</v>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>119</v>
@@ -1828,49 +1825,49 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D57" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="D58" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>119</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
@@ -1893,26 +1890,26 @@
         <v>152</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>119</v>
@@ -1920,13 +1917,13 @@
       <c r="C62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="4">
-        <v>2</v>
+      <c r="D62" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>119</v>
@@ -1935,54 +1932,54 @@
         <v>51</v>
       </c>
       <c r="D63" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="6">
-        <v>4</v>
+        <v>159</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D65" s="4">
-        <v>1181</v>
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D66" s="4">
-        <v>874</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>119</v>
@@ -1991,12 +1988,12 @@
         <v>147</v>
       </c>
       <c r="D67" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>119</v>
@@ -2005,60 +2002,60 @@
         <v>147</v>
       </c>
       <c r="D68" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="D69" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="4">
-        <v>211</v>
+        <v>102</v>
+      </c>
+      <c r="D70" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2066,21 +2063,21 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D73" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>121</v>
@@ -2089,21 +2086,21 @@
         <v>56</v>
       </c>
       <c r="D74" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D75" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,54 +2114,54 @@
         <v>58</v>
       </c>
       <c r="D76" s="4">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D78" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D79" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>119</v>
@@ -2173,26 +2170,26 @@
         <v>62</v>
       </c>
       <c r="D80" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D81" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>119</v>
@@ -2201,21 +2198,21 @@
         <v>64</v>
       </c>
       <c r="D82" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D83" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,10 +2223,10 @@
         <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D84" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,10 +2237,10 @@
         <v>119</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D85" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,99 +2251,99 @@
         <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D86" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D88" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D89" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D90" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D91" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>119</v>
@@ -2355,26 +2352,26 @@
         <v>73</v>
       </c>
       <c r="D93" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>123</v>
@@ -2383,12 +2380,12 @@
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>123</v>
@@ -2397,104 +2394,90 @@
         <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D97" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D98" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D99" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" s="4">
-        <v>202</v>
+        <v>115</v>
+      </c>
+      <c r="D100" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D101" s="6">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="D101" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D102" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2504,7 +2487,7 @@
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D103">
+  <conditionalFormatting sqref="A2:D102">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79725F08-CBE2-4CF4-89C2-255B4C6781BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365467BE-31CD-4229-90E0-FE7E475FD078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -707,7 +707,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1041,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1451,7 @@
         <v>95</v>
       </c>
       <c r="D28" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,7 +1465,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1479,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,7 +1493,7 @@
         <v>95</v>
       </c>
       <c r="D31" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,13 +2492,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="2" priority="58">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D102">
+  <conditionalFormatting sqref="A2:D27 A32:D102">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:D31">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365467BE-31CD-4229-90E0-FE7E475FD078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F722A78-C0CC-43D4-A62F-1C7783649AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
   <si>
     <t>Complemento</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>S010046</t>
   </si>
 </sst>
 </file>
@@ -707,16 +713,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1048,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,77 +2279,77 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="D88" s="4">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D89" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D91" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>119</v>
@@ -2361,26 +2358,26 @@
         <v>73</v>
       </c>
       <c r="D93" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D94" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>123</v>
@@ -2389,12 +2386,12 @@
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>123</v>
@@ -2403,107 +2400,116 @@
         <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D97" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D98" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D99" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="6">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="D100" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="4">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="D101" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="B103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D103" s="4">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="1" priority="58">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D27 A32:D102">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D103">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D31">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F722A78-C0CC-43D4-A62F-1C7783649AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D56B72-C5E8-402C-A49A-7358C1899FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D56B72-C5E8-402C-A49A-7358C1899FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E712B0-2157-49A5-BA46-5156CBFC4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$102</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
@@ -1045,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>119</v>
@@ -1285,13 +1282,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>120</v>
@@ -1350,12 +1347,12 @@
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>120</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>119</v>
@@ -1523,13 +1520,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D34" s="6">
         <v>1449</v>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -1635,7 +1632,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>119</v>
@@ -1761,7 +1758,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>120</v>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>119</v>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>119</v>
@@ -2111,49 +2108,49 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D76" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D77" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D78" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>119</v>
@@ -2162,26 +2159,26 @@
         <v>62</v>
       </c>
       <c r="D79" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D80" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>119</v>
@@ -2190,21 +2187,21 @@
         <v>64</v>
       </c>
       <c r="D81" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D82" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,10 +2212,10 @@
         <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D83" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,10 +2226,10 @@
         <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D84" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,113 +2240,113 @@
         <v>119</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D85" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D86" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="D87" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D88" s="4">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D89" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D90" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D91" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>119</v>
@@ -2358,26 +2355,26 @@
         <v>73</v>
       </c>
       <c r="D93" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>123</v>
@@ -2386,12 +2383,12 @@
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>123</v>
@@ -2400,104 +2397,90 @@
         <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D97" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D98" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D99" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" s="4">
-        <v>202</v>
+        <v>115</v>
+      </c>
+      <c r="D100" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D101" s="6">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="D101" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D102" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2507,7 +2490,7 @@
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D103">
+  <conditionalFormatting sqref="A2:D102">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E712B0-2157-49A5-BA46-5156CBFC4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E9F6EA-CED7-44D9-979C-F24136F2F167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -560,9 +560,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
   </si>
   <si>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>S010046</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D34" s="6">
         <v>1449</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>119</v>
@@ -1725,7 +1725,7 @@
         <v>117</v>
       </c>
       <c r="D48" s="4">
-        <v>1157</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>119</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>119</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>119</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>119</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>119</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D87" s="4">
         <v>51</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>119</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>119</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>119</v>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E9F6EA-CED7-44D9-979C-F24136F2F167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B671783-E9FC-404B-9AF9-71E2AA1647B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,30 +1162,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,91 +1498,91 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1436</v>
+        <v>97</v>
+      </c>
+      <c r="D32" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D33" s="6">
-        <v>12</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1449</v>
+        <v>26</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4">
-        <v>1454</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>119</v>
@@ -1585,12 +1591,12 @@
         <v>30</v>
       </c>
       <c r="D38" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>119</v>
@@ -1599,12 +1605,12 @@
         <v>30</v>
       </c>
       <c r="D39" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>119</v>
@@ -1613,68 +1619,68 @@
         <v>30</v>
       </c>
       <c r="D40" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="D41" s="4">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4">
-        <v>1456</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>119</v>
@@ -1683,91 +1689,91 @@
         <v>35</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D47" s="4">
-        <v>272</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="D48" s="4">
-        <v>1469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D49" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D51" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,30 +2254,30 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="D86" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,21 +2366,21 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D94" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>123</v>
@@ -2383,12 +2389,12 @@
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>123</v>
@@ -2397,77 +2403,77 @@
         <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D97" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D98" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D99" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="6">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="D100" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="4">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="D101" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,13 +2490,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D103" xr:uid="{F521B842-B80F-4E19-ADA8-8059B3545A91}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D103">
+      <sortCondition ref="A1:A103"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="58">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D102">
+  <conditionalFormatting sqref="A2:D103">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_csala.xlsx
+++ b/pages/PI_ssoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B671783-E9FC-404B-9AF9-71E2AA1647B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10A50D-AE8D-4124-8C9E-45D5D713747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43C20981-3BE8-49D6-9FA6-6B0A4D4384BB}"/>
   </bookViews>
@@ -290,15 +290,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>FILTRO COADOR DE PAPEL C/30 UND - TAM. 103</t>
   </si>
   <si>
@@ -428,9 +422,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -609,6 +600,15 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -1148,13 +1148,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6">
         <v>122</v>
@@ -1165,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="D14" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1288,13 +1288,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1305,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1344,24 +1344,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>23</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4">
         <v>1160</v>
@@ -1431,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4">
         <v>1175</v>
@@ -1456,13 +1456,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="6">
         <v>12</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D33" s="6">
         <v>1449</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>26</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
@@ -1585,7 +1585,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>30</v>
@@ -1599,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1613,7 +1613,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>30</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="4">
         <v>1456</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4">
         <v>750</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="4">
         <v>471</v>
@@ -1669,7 +1669,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>35</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4">
         <v>272</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4">
         <v>1469</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>37</v>
@@ -1739,7 +1739,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>40</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D51" s="4">
         <v>116</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>41</v>
@@ -1795,7 +1795,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>43</v>
@@ -1809,7 +1809,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>45</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>46</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>47</v>
@@ -1851,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>49</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1907,7 +1907,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>51</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>51</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>51</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D65" s="4">
         <v>874</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D66" s="4">
         <v>1172</v>
@@ -1988,13 +1988,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D67" s="4">
         <v>1173</v>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D68" s="4">
         <v>1174</v>
@@ -2019,7 +2019,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>53</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70" s="6">
         <v>591</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>54</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4">
         <v>1167</v>
@@ -2075,7 +2075,7 @@
         <v>55</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>56</v>
@@ -2089,7 +2089,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>56</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>58</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>59</v>
@@ -2131,7 +2131,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>61</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>62</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>62</v>
@@ -2173,7 +2173,7 @@
         <v>65</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>64</v>
@@ -2187,7 +2187,7 @@
         <v>63</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>64</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D82" s="4">
         <v>1457</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>66</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84" s="4">
         <v>1030</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>67</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D86" s="4">
         <v>51</v>
@@ -2271,7 +2271,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>69</v>
@@ -2285,7 +2285,7 @@
         <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>71</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4">
         <v>437</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90" s="4">
         <v>449</v>
@@ -2327,7 +2327,7 @@
         <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>73</v>
@@ -2341,7 +2341,7 @@
         <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>73</v>
@@ -2355,7 +2355,7 @@
         <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>73</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D94" s="4">
         <v>1436</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>76</v>
@@ -2397,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>76</v>
@@ -2411,7 +2411,7 @@
         <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>76</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="4">
         <v>878</v>
@@ -2439,7 +2439,7 @@
         <v>79</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>80</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D100" s="4">
         <v>202</v>
@@ -2464,13 +2464,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D101" s="6">
         <v>2</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>81</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D103" s="4">
         <v>15</v>
